--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C9A93F-DCA3-4687-B8BC-9A008A3C53A3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021A30A-A740-41BF-904F-3543FEE43DEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1887,9 +1887,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -1899,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1910,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021A30A-A740-41BF-904F-3543FEE43DEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757B022-A909-438D-95E7-9CEB9334F66B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757B022-A909-438D-95E7-9CEB9334F66B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439BCE9E-E62C-4883-BA94-9C1AB1EECAA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1930,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439BCE9E-E62C-4883-BA94-9C1AB1EECAA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57963DD-FB16-49C7-ADE5-E91BED37F1F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1985,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2029,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2040,7 +2040,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
